--- a/similarities/split_global/harmonic_similarity_timestamps_390.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_390.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,694 +484,724 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_27</t>
+          <t>isophonics_227</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_10</t>
+          <t>schubert-winterreise_169</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D:min', 'F', 'C']]</t>
+          <t>['E:7', 'A:min', 'D:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['E:min', 'G', 'D/3']]</t>
+          <t>['D:7', 'G:min', 'C:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:36.380430', '0:00:51.717210')]</t>
+          <t>('0:00:20.045192', '0:00:25.141972')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:02:53.535000', '0:03:00.310000')]</t>
+          <t>('0:00:07.900000', '0:00:19.440000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-27#t=36.38043']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-227#t=20.045192</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-10#t=173.535']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=7.9</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>isophonics_242</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>isophonics_221</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['A', 'E', 'A:maj6']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
+          <t>['F', 'C/3', 'D:min7']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:18.920000', '0:00:21.940000')]</t>
+          <t>('0:00:04.511043', '0:00:10.664331')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:03:55.320000', '0:04:02.100000')]</t>
+          <t>('0:01:03.837000', '0:01:05.890000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=18.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-242#t=4.511043</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=235.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=63.837</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_49</t>
+          <t>isophonics_112</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C', 'C:min', 'G']]</t>
+          <t>['A', 'D/5', 'A']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'D#:min/A#', 'A#:maj']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:24.911369', '0:00:31.761256')]</t>
+          <t>('0:00:00.421247', '0:00:04.824512')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:05.320000', '0:00:11.700000')]</t>
+          <t>('0:00:55.180000', '0:01:02.060000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-49#t=24.911369']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-112#t=0.421247</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=5.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_183</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>isophonics_82</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['D:maj', 'G:maj', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['E', 'A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+          <t>('0:00:13.822000', '0:00:20.852000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:18.320000', '0:00:25.820000')]</t>
+          <t>('0:01:05.103514', '0:01:12.358823')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=13.822</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-82#t=65.103514</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_275</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>isophonics_182</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'C', 'G', 'D']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['G', 'C/5', 'G']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:07.102281', '0:00:24.401147')]</t>
+          <t>('0:01:00.040000', '0:01:07.080000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:53.960000', '0:01:05.560000')]</t>
+          <t>('0:00:59.182426', '0:01:04.464965')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=7.102281']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=53.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-182#t=59.182426</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_80</t>
+          <t>jaah_22</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>jaah_47</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F', 'F:7', 'Bb'], ['G:min7', 'C:7', 'F']]</t>
+          <t>['C:7', 'F:7', 'Bb:maj6']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['A:min7/C', 'D:7', 'G:maj']]</t>
+          <t>['Eb:7', 'Ab:7', 'Db:maj6']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:01.640000', '0:00:05.110000'), ('0:00:20.730000', '0:00:24.830000')]</t>
+          <t>('0:00:23.780000', '0:00:28.140000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:53.500000', '0:01:01.320000'), ('0:01:05.760000', '0:01:11.700000')]</t>
+          <t>('0:00:10.330000', '0:00:12.360000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=1.64', 'https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=20.73']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-22#t=23.78</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=53.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=65.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-47#t=10.33</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>jaah_75</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>jaah_65</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db/5', 'Ab']]</t>
+          <t>['Eb:maj6', 'Bb:7', 'Eb:maj6']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['Ab:maj6', 'Eb:7', 'Ab:maj6']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:00.243000', '0:00:09.120000')]</t>
+          <t>('0:00:30.400000', '0:00:35.170000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:55.680000', '0:01:02.280000')]</t>
+          <t>('0:00:00.600000', '0:00:02.510000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=0.243']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-75#t=30.4</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=55.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-65#t=0.6</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_37</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_198</t>
+          <t>jaah_77</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['G:maj/B', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A', 'D:min']]</t>
+          <t>['C', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:45.580000', '0:00:49.600000')]</t>
+          <t>('0:00:18.060000', '0:00:20.600000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:18.965464', '0:00:23.342426')]</t>
+          <t>('0:00:21.170000', '0:00:25.690000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=45.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=18.06</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-198#t=18.965464']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=21.17</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>schubert-winterreise_139</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['F#:maj', 'C#:7/F', 'F#:maj', 'C#:7/F', 'F#:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:46.520000', '0:00:48.940000')]</t>
+          <t>('0:00:34.380000', '0:00:41.200000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:02:11.200000', '0:02:16.340000')]</t>
+          <t>('0:00:35.860000', '0:00:39.460000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=46.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=34.38</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=131.2']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=35.86</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>schubert-winterreise_194</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_92</t>
+          <t>schubert-winterreise_210</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['C:min', 'G:7/D', 'C:min/D#']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
+          <t>('0:00:02', '0:00:04.320000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:02.440000')]</t>
+          <t>('0:00:16.580000', '0:00:22.660000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-43#t=41.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=2.0</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=0.36']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=16.58</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>jaah_25</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['F:7', 'Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['A#:7', 'D#:maj', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:33.698526', '0:00:42.916848')]</t>
+          <t>('0:00:48.250000', '0:00:59.490000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:57.480000', '0:01:04.580000')]</t>
+          <t>('0:01:04.080000', '0:01:11.860000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=33.698526']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=48.25</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=64.08</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
+          <t>isophonics_136</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_241</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A:min', 'D', 'G']]</t>
+          <t>['A', 'D/5', 'A']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D:min', 'G', 'C']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:38.075850', '0:01:50.185056')]</t>
+          <t>('0:00:00.939000', '0:00:03.682000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:30.971000', '0:01:36.810000')]</t>
+          <t>('0:00:56.720000', '0:00:58.880000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=98.07585']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=0.939</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-241#t=90.971']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>isophonics_15</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['C', 'F', 'C']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:55.680000', '0:01:02.280000')]</t>
+          <t>('0:01:04.514625', '0:01:27.246961')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
+          <t>('0:00:16.820000', '0:00:23.180000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=55.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-15#t=64.514625</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=16.82</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>isophonics_274</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>['Ab', 'Db', 'Ab']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>['F', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:00.340000', '0:00:04.840000'), ('0:00:07.700000', '0:00:12.060000')]</t>
+          <t>('0:00:03.129454', '0:00:05.172811')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:13.980000', '0:00:21.500000'), ('0:01:19.420000', '0:01:26.020000')]</t>
+          <t>('0:01:02.530000', '0:01:09.910000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=0.34', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=7.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-274#t=3.129454</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=13.98', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=79.42']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>schubert-winterreise_123</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'G', 'D']]</t>
+          <t>['F:min', 'C:7/F', 'F:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:20.240000', '0:00:29.340000')]</t>
+          <t>('0:00:41.380000', '0:00:43.340000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:28.197000', '0:00:34.358000')]</t>
+          <t>('0:00:14.920000', '0:00:20.760000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=20.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=41.38</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=28.197']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=14.92</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1180,6 +1210,8 @@
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
